--- a/04a.xlsx
+++ b/04a.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E413FA-C707-459B-B221-3F695915C3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3B752F-A38F-40B7-9C32-93B6EE13234C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6255" yWindow="4748" windowWidth="28230" windowHeight="15097" xr2:uid="{CE50552C-6DD6-42F5-855E-DEEF77A41DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="ポアソン分布" sheetId="10" r:id="rId1"/>
-    <sheet name="ポアソン分布 (可視化)" sheetId="2" r:id="rId2"/>
+    <sheet name="ポアソン分布 (完成例)" sheetId="2" r:id="rId2"/>
     <sheet name="ポアソン分布 (公式に従って作成)" sheetId="11" r:id="rId3"/>
     <sheet name="二項分布とポアソン分布" sheetId="7" r:id="rId4"/>
-    <sheet name="ポアソン分布 (応用例)" sheetId="13" r:id="rId5"/>
+    <sheet name="二項分布とポアソン分布 (完成例)" sheetId="14" r:id="rId5"/>
+    <sheet name="ポアソン分布 (応用例)" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t>k</t>
     <phoneticPr fontId="1"/>
@@ -192,6 +193,40 @@
     </rPh>
     <rPh sb="32" eb="34">
       <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18人以上の顧客が訪れる確率（1から17人までの累積確率を引けば求められる）</t>
+    <rPh sb="2" eb="3">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オトズ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ルイセキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>モト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -345,7 +380,7 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>'ポアソン分布 (可視化)'!$A$1</c:f>
+          <c:f>'ポアソン分布 (完成例)'!$A$1</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
@@ -395,7 +430,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ポアソン分布 (可視化)'!$B$5</c:f>
+              <c:f>'ポアソン分布 (完成例)'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -416,7 +451,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'ポアソン分布 (可視化)'!$A$6:$A$11</c:f>
+              <c:f>'ポアソン分布 (完成例)'!$A$6:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -443,7 +478,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ポアソン分布 (可視化)'!$B$6:$B$11</c:f>
+              <c:f>'ポアソン分布 (完成例)'!$B$6:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -494,7 +529,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ポアソン分布 (可視化)'!$C$5</c:f>
+              <c:f>'ポアソン分布 (完成例)'!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -517,7 +552,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'ポアソン分布 (可視化)'!$C$6:$C$11</c:f>
+              <c:f>'ポアソン分布 (完成例)'!$C$6:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1195,7 +1230,7 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>二項分布とポアソン分布!$A$1</c:f>
+          <c:f>'二項分布とポアソン分布 (完成例)'!$A$1</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
@@ -1245,7 +1280,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>二項分布とポアソン分布!$B$6</c:f>
+              <c:f>'二項分布とポアソン分布 (完成例)'!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1266,7 +1301,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>二項分布とポアソン分布!$A$7:$A$17</c:f>
+              <c:f>'二項分布とポアソン分布 (完成例)'!$A$7:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1308,7 +1343,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>二項分布とポアソン分布!$B$7:$B$17</c:f>
+              <c:f>'二項分布とポアソン分布 (完成例)'!$B$7:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1350,7 +1385,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D619-49E5-BA42-1246ADB37FAB}"/>
+              <c16:uniqueId val="{00000000-BB6A-43AA-B118-B4F047A28DA4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1374,7 +1409,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>二項分布とポアソン分布!$C$6</c:f>
+              <c:f>'二項分布とポアソン分布 (完成例)'!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1397,7 +1432,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>二項分布とポアソン分布!$C$7:$C$17</c:f>
+              <c:f>'二項分布とポアソン分布 (完成例)'!$C$7:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1440,7 +1475,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D619-49E5-BA42-1246ADB37FAB}"/>
+              <c16:uniqueId val="{00000001-BB6A-43AA-B118-B4F047A28DA4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4571,7 +4606,7 @@
         <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A768CA11-1A40-4BB4-BEC9-E1A6EA0348F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A4DCA12-AB57-4518-B512-C8F9DBE9681B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5264,6 +5299,122 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>100</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A17" s="3">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B36A701-62B3-4B9D-A8E2-511238D4D4F0}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -5445,12 +5596,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18431235-9FF6-4E6E-80C3-FFA37FA5D52F}">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -5613,7 +5764,7 @@
         <v>0.58303975019298537</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A17">
         <v>11</v>
       </c>
@@ -5624,7 +5775,7 @@
         <v>0.69677614630310658</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A18">
         <v>12</v>
       </c>
@@ -5635,7 +5786,7 @@
         <v>0.79155647639487436</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A19">
         <v>13</v>
       </c>
@@ -5646,7 +5797,7 @@
         <v>0.864464422619311</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A20">
         <v>14</v>
       </c>
@@ -5657,7 +5808,7 @@
         <v>0.9165415270653372</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A21">
         <v>15</v>
       </c>
@@ -5668,7 +5819,7 @@
         <v>0.95125959669602134</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A22">
         <v>16</v>
       </c>
@@ -5679,7 +5830,7 @@
         <v>0.97295839021519881</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A23">
         <v>17</v>
       </c>
@@ -5689,8 +5840,11 @@
       <c r="C23">
         <v>0.9857223864029504</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A24">
         <v>18</v>
       </c>
@@ -5700,8 +5854,12 @@
       <c r="C24">
         <v>0.99281349539614561</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="E24">
+        <f>1-C23</f>
+        <v>1.4277613597049599E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A25">
         <v>19</v>
       </c>
@@ -5712,7 +5870,7 @@
         <v>0.99654565802414319</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A26" s="3">
         <v>20</v>
       </c>
